--- a/src/test/resources/testdata/OpenEMRData.xlsx
+++ b/src/test/resources/testdata/OpenEMRData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JiDi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B-Mine\Company\Company\Hope3\openemr\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="validCredentialTest" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="26">
   <si>
     <t>Username</t>
   </si>
@@ -82,6 +82,30 @@
   </si>
   <si>
     <t>ExpectedValue2</t>
+  </si>
+  <si>
+    <t>Invalid username or password</t>
+  </si>
+  <si>
+    <t>Invalid username or password123</t>
+  </si>
+  <si>
+    <t>admin1</t>
+  </si>
+  <si>
+    <t>accountan1t</t>
+  </si>
+  <si>
+    <t>accounta1n1t</t>
+  </si>
+  <si>
+    <t>Search or Add Patient</t>
+  </si>
+  <si>
+    <t>Dutch</t>
+  </si>
+  <si>
+    <t>Danish</t>
   </si>
 </sst>
 </file>
@@ -399,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D3"/>
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,6 +493,62 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -479,7 +559,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,7 +620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -604,26 +684,153 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>